--- a/数据整理/stocks/A股/创业板/300979-华利集团.xlsx
+++ b/数据整理/stocks/A股/创业板/300979-华利集团.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3361,4 +3362,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>45</v>
+      </c>
+      <c r="D2" t="n">
+        <v>23.75</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>29</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13.33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300979-华利集团.xlsx
+++ b/数据整理/stocks/A股/创业板/300979-华利集团.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3370,7 +3371,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3381,17 +3382,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3401,14 +3422,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>45</v>
-      </c>
-      <c r="D2" t="n">
-        <v>23.75</v>
+          <t>010347</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>农银汇理策略收益一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>77.85</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.46</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.1494</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -3417,13 +3460,1677 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>100020</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国天益价值混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>103.56</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.9249</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>270002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>208.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>51.01</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.8117</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>160926</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>40.93</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>78.27</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.7832</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>660010</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>农银策略精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>39.89</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.5968</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009636</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气优选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>58.66</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.23</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.1176</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010815</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>农银汇理新兴消费股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>39.40</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.45</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.8715</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161040</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>44.60</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>96.37</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.8197</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007968</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>26.42</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.91</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9590</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000566</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创新升级混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>24.03</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.13</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8723</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000127</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>农银行业领先混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>12.28</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.14</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7700</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>160529</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.51</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7001</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011817</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银华阿尔法混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>16.66</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>73.62</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6248</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008819</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>农银汇理策略趋势混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.02</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5039</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008373</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>12.72</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.85</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4630</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009798</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>大成创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>78.27</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4617</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>660012</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>农银消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3663</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>960033</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>农银消费主题混合H</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3663</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012260</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发睿明优质企业混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>16.40</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>50.58</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3280</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>420003</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>天弘永定价值成长混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>84.38</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3172</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006796</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国消费升级混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2681</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000967</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>85.24</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2436</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011078</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>诺德品质消费6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2381</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>270041</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>广发消费品精选混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>81.98</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2308</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>164205</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>天弘文化新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1688</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012060</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富国全球消费精选混合型证券投资基金（QDII）A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>75.81</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1684</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012061</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>富国全球消费精选混合型证券投资基金（QDII）美元现汇</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>75.81</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1684</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010457</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>广发睿鑫混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>72.84</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1357</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002189</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>农银汇理国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1086</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010808</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>达诚策略先锋混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0621</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009326</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>广发稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>51.01</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0591</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011307</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>富国天益价值混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0538</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>003308</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中信建投睿利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>9.24</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010809</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>达诚策略先锋混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>000804</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中信建投稳利混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>39.91</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>012261</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>广发睿明优质企业混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>50.58</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010028</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创新升级混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>86.13</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010022</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>广发消费品精选混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>81.98</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>006844</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中信建投稳利混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>39.91</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010291</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华泰柏瑞研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>84.91</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>012062</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>富国全球消费精选混合型证券投资基金（QDII）C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>75.81</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>008374</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>86.85</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>004635</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中信建投睿利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>9.24</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>43</v>
+      </c>
+      <c r="D2" t="n">
+        <v>31.89</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>45</v>
+      </c>
+      <c r="D3" t="n">
+        <v>23.75</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>29</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>13.33</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300979-华利集团.xlsx
+++ b/数据整理/stocks/A股/创业板/300979-华利集团.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5061,7 +5062,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5072,17 +5073,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5092,14 +5113,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>43</v>
-      </c>
-      <c r="D2" t="n">
-        <v>31.89</v>
+          <t>010347</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>农银汇理策略收益一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>56.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>74.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.3826</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -5108,14 +5151,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>45</v>
-      </c>
-      <c r="D3" t="n">
-        <v>23.75</v>
+          <t>100020</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国天益价值混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>76.78</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.2017</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -5124,13 +5189,1199 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>270002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>178.96</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>41.88</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.1139</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>160926</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>40.93</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>64.09</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.0329</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>660010</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>农银策略精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>31.49</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>75.60</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.1193</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161040</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>35.36</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.63</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.5240</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010815</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>农银汇理新兴消费股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>29.81</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.28</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.4816</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000127</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>农银行业领先混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.28</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>75.75</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7970</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>160529</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>82.61</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7025</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009798</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>64.09</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4201</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008819</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>农银汇理策略趋势混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>76.46</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4115</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>160143</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方创业板2年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3843</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012260</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发睿明优质企业混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12.09</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>61.24</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3579</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>420003</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>天弘永定价值成长混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>81.42</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2325</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>660012</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>农银消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>65.93</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2124</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>960033</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>农银消费主题混合H</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>65.93</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2124</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>270041</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发消费品精选混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>74.34</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1881</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>164205</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>天弘文化新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>82.58</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1873</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011078</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>诺德品质消费6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1756</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010457</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发睿鑫混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>60.09</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1352</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002189</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>农银汇理国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>54.15</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0881</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>660003</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>农银平衡双利混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>69.47</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0728</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010808</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>达诚策略先锋混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>84.86</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0512</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009326</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>广发稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>41.88</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0503</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011307</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>富国天益价值混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010809</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>达诚策略先锋混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>84.86</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012261</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>广发睿明优质企业混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>61.24</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010458</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>广发睿鑫混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>60.09</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>003308</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中信建投睿利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010022</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>广发消费品精选混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>74.34</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>004635</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中信建投睿利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>31</v>
+      </c>
+      <c r="D2" t="n">
+        <v>22.65</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>43</v>
+      </c>
+      <c r="D3" t="n">
+        <v>31.89</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>45</v>
+      </c>
+      <c r="D4" t="n">
+        <v>23.75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>29</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>13.33</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300979-华利集团.xlsx
+++ b/数据整理/stocks/A股/创业板/300979-华利集团.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6296,7 +6297,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6307,17 +6308,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6327,14 +6348,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>31</v>
-      </c>
-      <c r="D2" t="n">
-        <v>22.65</v>
+          <t>270002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>179.25</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>45.19</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.6605</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -6343,14 +6386,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>43</v>
-      </c>
-      <c r="D3" t="n">
-        <v>31.89</v>
+          <t>010347</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>农银汇理策略收益一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>61.66</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.4036</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -6359,14 +6424,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>45</v>
-      </c>
-      <c r="D4" t="n">
-        <v>23.75</v>
+          <t>100020</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国天益价值混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>74.76</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.2222</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -6375,13 +6462,1101 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>660010</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>农银策略精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>36.12</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.1311</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160926</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>37.48</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.33</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.8515</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010815</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>农银汇理新兴消费股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>32.60</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>80.91</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.4898</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161040</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>36.32</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.44</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.1586</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000127</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>农银行业领先混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.07</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6310</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008819</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>农银汇理策略趋势混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4139</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012260</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发睿明优质企业混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>12.61</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>66.98</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3594</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>501070</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发睿阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>53.33</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3508</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>160529</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>80.39</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3303</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009798</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大成创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.33</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3068</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>160143</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南方创业板2年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.64</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.75</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2367</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>660012</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>农银消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>83.66</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2136</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>960033</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>农银消费主题混合H</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>83.66</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2136</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>164205</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>天弘文化新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>85.82</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1881</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011078</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>诺德品质消费6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1779</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010457</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发睿鑫混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>76.12</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1560</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006796</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国消费升级混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0951</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002189</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>农银汇理国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>86.59</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0887</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009326</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>45.19</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0741</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012261</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>广发睿明优质企业混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>66.98</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010458</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>广发睿鑫混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>76.12</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011307</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>富国天益价值混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011567</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富国消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009513</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>创金合信同顺创业板精选股票A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009514</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>创金合信同顺创业板精选股票C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>015475</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>天弘文化新兴产业股票C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>85.82</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>29</v>
+      </c>
+      <c r="D2" t="n">
+        <v>21.85</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>31</v>
+      </c>
+      <c r="D3" t="n">
+        <v>22.65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>43</v>
+      </c>
+      <c r="D4" t="n">
+        <v>31.89</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>45</v>
+      </c>
+      <c r="D5" t="n">
+        <v>23.75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>29</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>13.33</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300979-华利集团.xlsx
+++ b/数据整理/stocks/A股/创业板/300979-华利集团.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>21.85</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D3" t="n">
-        <v>22.65</v>
+        <v>21.85</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D4" t="n">
-        <v>31.89</v>
+        <v>22.65</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D5" t="n">
-        <v>23.75</v>
+        <v>31.89</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>45</v>
+      </c>
+      <c r="D6" t="n">
+        <v>23.75</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>29</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>13.33</v>
       </c>
     </row>
@@ -566,6 +583,442 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>270002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>160.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>38.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.0327</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>100020</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国天益价值混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>60.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8471</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160926</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>64.14</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2373</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501070</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发睿阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>51.01</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2343</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011078</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>诺德品质消费6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1382</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009798</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>64.14</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0837</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001742</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略精选灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>40.85</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0655</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009326</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>38.78</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0435</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011307</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国天益价值混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001741</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>40.85</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1723,7 +2176,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2957,7 +3410,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4647,7 +5100,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6409,7 +6862,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300979-华利集团.xlsx
+++ b/数据整理/stocks/A股/创业板/300979-华利集团.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D2" t="n">
-        <v>5.7</v>
+        <v>6.36</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>21.85</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D4" t="n">
-        <v>22.65</v>
+        <v>21.85</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D5" t="n">
-        <v>31.89</v>
+        <v>22.65</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D6" t="n">
-        <v>23.75</v>
+        <v>31.89</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>45</v>
+      </c>
+      <c r="D7" t="n">
+        <v>23.75</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>29</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>13.33</v>
       </c>
     </row>
@@ -583,6 +600,1200 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>270002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>163.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>41.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.6667</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>260116</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城核心竞争力混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>26.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.33</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6521</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010104</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.89</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.17</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5320</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012260</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发睿明优质企业混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>65.70</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3171</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501070</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发睿阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>50.25</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1712</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011078</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>诺德品质消费6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1599</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160613</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华盛世创新混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1339</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012640</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华稳健鸿利一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1235</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008134</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华优选价值股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1124</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010457</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发睿鑫混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>81.02</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1041</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011574</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华领航一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0533</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009326</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>41.96</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0515</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>015627</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>圆信永丰弘阳股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>67.38</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0491</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014513</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>金鹰远见优选混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0452</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011575</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华领航一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>015731</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>景顺长城核心竞争力混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.33</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012261</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发睿明优质企业混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>65.70</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010458</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发睿鑫混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>81.02</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>014514</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>金鹰远见优选混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010105</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>景顺长城消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>85.17</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>161727</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商增荣灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>55.51</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004608</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长信乐信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>32.30</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>960008</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>景顺长城核心竞争力混合H</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>85.33</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009719</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>招商增浩一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>21.56</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012641</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>鹏华稳健鸿利一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>007288</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>合煦智远消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>83.65</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009718</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>招商增浩一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>21.56</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>007287</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>合煦智远消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>83.65</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>004609</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>长信乐信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>32.30</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>015628</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>圆信永丰弘阳股票C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>67.38</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1018,7 +2229,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2176,7 +3387,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3410,7 +4621,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5100,7 +6311,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6862,7 +8073,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
